--- a/作业表.xlsx
+++ b/作业表.xlsx
@@ -18,14 +18,259 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="64">
+  <si>
+    <t>pid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dmg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c108</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c112</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>c116</t>
+  </si>
+  <si>
+    <t>c201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c202</t>
+  </si>
+  <si>
+    <t>c203</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>c204</t>
+  </si>
+  <si>
+    <t>c205</t>
+  </si>
+  <si>
+    <t>c206</t>
+  </si>
+  <si>
+    <t>c207</t>
+  </si>
+  <si>
+    <t>c301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c302</t>
+  </si>
+  <si>
+    <t>c303</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>c304</t>
+  </si>
+  <si>
+    <t>c305</t>
+  </si>
+  <si>
+    <t>c306</t>
+  </si>
+  <si>
+    <t>c401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c402</t>
+  </si>
+  <si>
+    <t>c403</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>c501</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c502</t>
+  </si>
+  <si>
+    <t>c503</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>c504</t>
+  </si>
+  <si>
+    <t>忍克圣锤狼511</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忍克狼511妈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忍克圣锤狼妈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忍克春猫狼妈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水白克病春猫狼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>情姐克病春猫511</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水白克病娇情病狼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>情姐克病水猫剑511</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼克病水白511</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼克环水白511</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼克智水白511</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼克忍511黄骑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼克忍狗黄骑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼克环黄骑忍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼克剑黄骑充电宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼克病黄骑充电宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼克环黄骑栞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼克病环妈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼克环情姐511</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妹法77春田水黑xcw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流夏狼克情姐511</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流夏狼病情姐511</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流夏狼春猫情姐511</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>team</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -53,7 +298,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -69,7 +314,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -114,7 +359,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +394,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -331,12 +576,444 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="20.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2">
+        <v>245</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3">
+        <v>215</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4">
+        <v>210</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5">
+        <v>220</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6">
+        <v>270</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7">
+        <v>245</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8">
+        <v>280</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9">
+        <v>200</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10">
+        <v>260</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11">
+        <v>220</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12">
+        <v>230</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13">
+        <v>220</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14">
+        <v>220</v>
+      </c>
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15">
+        <v>239</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16">
+        <v>240</v>
+      </c>
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17">
+        <v>260</v>
+      </c>
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18">
+        <v>225</v>
+      </c>
+      <c r="E18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19">
+        <v>240</v>
+      </c>
+      <c r="E19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20">
+        <v>230</v>
+      </c>
+      <c r="E20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21">
+        <v>230</v>
+      </c>
+      <c r="E21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22">
+        <v>200</v>
+      </c>
+      <c r="E22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23">
+        <v>195</v>
+      </c>
+      <c r="E23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24">
+        <v>230</v>
+      </c>
+      <c r="E24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25">
+        <v>200</v>
+      </c>
+      <c r="E25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>